--- a/ConsolidaUff/Codigos/Modelo.xlsx
+++ b/ConsolidaUff/Codigos/Modelo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>EMPENHO</t>
   </si>
@@ -37,7 +37,13 @@
     <t>MODALIDADE DA LICITAÇÃO</t>
   </si>
   <si>
-    <t>NATUREZA DA DESPESA</t>
+    <t>PTRES</t>
+  </si>
+  <si>
+    <t>Nº NATUREZA DESPESA</t>
+  </si>
+  <si>
+    <t>PLANO INTERNO</t>
   </si>
 </sst>
 </file>
@@ -111,20 +117,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,32 +433,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -470,9 +476,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>